--- a/raw data-first step.xlsx
+++ b/raw data-first step.xlsx
@@ -7,7 +7,7 @@
     <workbookView windowWidth="18350" windowHeight="7000"/>
   </bookViews>
   <sheets>
-    <sheet name="round 1" sheetId="1" r:id="rId1"/>
+    <sheet name="1 times" sheetId="1" r:id="rId1"/>
     <sheet name="round 2" sheetId="2" r:id="rId2"/>
     <sheet name="round 3" sheetId="3" r:id="rId3"/>
     <sheet name="round 4" sheetId="4" r:id="rId4"/>

--- a/raw data-first step.xlsx
+++ b/raw data-first step.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000"/>
+    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1 times" sheetId="1" r:id="rId1"/>
-    <sheet name="round 2" sheetId="2" r:id="rId2"/>
+    <sheet name="2 times" sheetId="2" r:id="rId2"/>
     <sheet name="round 3" sheetId="3" r:id="rId3"/>
     <sheet name="round 4" sheetId="4" r:id="rId4"/>
     <sheet name="round 5" sheetId="5" r:id="rId5"/>
@@ -1337,7 +1337,7 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
@@ -11387,7 +11387,7 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/raw data-first step.xlsx
+++ b/raw data-first step.xlsx
@@ -4,29 +4,29 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="7000" activeTab="1"/>
+    <workbookView windowWidth="18350" windowHeight="7000" firstSheet="13" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="1 times" sheetId="1" r:id="rId1"/>
     <sheet name="2 times" sheetId="2" r:id="rId2"/>
-    <sheet name="round 3" sheetId="3" r:id="rId3"/>
-    <sheet name="round 4" sheetId="4" r:id="rId4"/>
-    <sheet name="round 5" sheetId="5" r:id="rId5"/>
-    <sheet name="round 6" sheetId="6" r:id="rId6"/>
-    <sheet name="round 7" sheetId="7" r:id="rId7"/>
-    <sheet name="round 8" sheetId="8" r:id="rId8"/>
-    <sheet name="round 9" sheetId="9" r:id="rId9"/>
-    <sheet name="round 10" sheetId="10" r:id="rId10"/>
-    <sheet name="round 11" sheetId="11" r:id="rId11"/>
-    <sheet name="round 12" sheetId="12" r:id="rId12"/>
-    <sheet name="round 13" sheetId="13" r:id="rId13"/>
-    <sheet name="round 14" sheetId="14" r:id="rId14"/>
-    <sheet name="round 15" sheetId="15" r:id="rId15"/>
-    <sheet name="round 16" sheetId="16" r:id="rId16"/>
-    <sheet name="round 17" sheetId="17" r:id="rId17"/>
-    <sheet name="round 18" sheetId="18" r:id="rId18"/>
-    <sheet name="round 19" sheetId="19" r:id="rId19"/>
-    <sheet name="round 20" sheetId="20" r:id="rId20"/>
+    <sheet name="3 times" sheetId="3" r:id="rId3"/>
+    <sheet name="4 times" sheetId="4" r:id="rId4"/>
+    <sheet name="5 times" sheetId="5" r:id="rId5"/>
+    <sheet name="6 times" sheetId="6" r:id="rId6"/>
+    <sheet name="7 times" sheetId="7" r:id="rId7"/>
+    <sheet name="8 times" sheetId="8" r:id="rId8"/>
+    <sheet name="9 times" sheetId="9" r:id="rId9"/>
+    <sheet name="10 times" sheetId="10" r:id="rId10"/>
+    <sheet name="11 times" sheetId="11" r:id="rId11"/>
+    <sheet name="12 times" sheetId="12" r:id="rId12"/>
+    <sheet name="13 times" sheetId="13" r:id="rId13"/>
+    <sheet name="14 times" sheetId="14" r:id="rId14"/>
+    <sheet name="15 times" sheetId="15" r:id="rId15"/>
+    <sheet name="16 times" sheetId="16" r:id="rId16"/>
+    <sheet name="17 times" sheetId="17" r:id="rId17"/>
+    <sheet name="18 times" sheetId="18" r:id="rId18"/>
+    <sheet name="19 times" sheetId="19" r:id="rId19"/>
+    <sheet name="20 times" sheetId="20" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -11387,7 +11387,7 @@
   <sheetPr/>
   <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -12311,7 +12311,7 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
